--- a/Ảnh vật tư/Mẫu Excel(NCC chưa có & đã có ).xlsx
+++ b/Ảnh vật tư/Mẫu Excel(NCC chưa có & đã có ).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Pro213\Ảnh vật tư\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CBF964-3EC8-463F-B71B-FE20FE575E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392A5A9A-4DA6-448A-9989-B956D6F145A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="2670" windowWidth="28800" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Mã Vật liệu</t>
   </si>
@@ -62,53 +62,29 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Sơn trắng Dulux</t>
-  </si>
-  <si>
-    <t>Thùng</t>
-  </si>
-  <si>
-    <t>Công ty Sơn BM</t>
-  </si>
-  <si>
-    <t>789 Đường Mới</t>
-  </si>
-  <si>
-    <t>alpha@moi.test</t>
-  </si>
-  <si>
-    <t>Đá Granite</t>
+    <t>Cát vàng</t>
   </si>
   <si>
     <t>Khối</t>
   </si>
   <si>
-    <t>500000,75</t>
-  </si>
-  <si>
-    <t>Công ty B</t>
-  </si>
-  <si>
-    <t>Đất sét</t>
-  </si>
-  <si>
-    <t>Công ty C</t>
-  </si>
-  <si>
-    <t>Xi măng Hà Tiên</t>
-  </si>
-  <si>
-    <t>Bao</t>
-  </si>
-  <si>
-    <t>08911122262</t>
+    <t xml:space="preserve">Công ty biển đông </t>
+  </si>
+  <si>
+    <t>0823141235</t>
+  </si>
+  <si>
+    <t>214 Đường cũ</t>
+  </si>
+  <si>
+    <t>CtyBd@moi.test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,18 +93,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,10 +167,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,58 +190,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -401,18 +370,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I4" totalsRowShown="0">
-  <autoFilter ref="A1:I4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mã Vật liệu" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tên vật liệu" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Đơn vị" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Số lượng" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Giá nhập" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tên NCC" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SĐT" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tên NCC" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SĐT" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Địa chỉ" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Email" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Email" dataDxfId="0" dataCellStyle="Siêu kết nối"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -696,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -736,9 +705,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -756,88 +725,22 @@
         <v>11</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="I2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3000</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3">
-        <v>51000</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Ảnh vật tư/Mẫu Excel(NCC chưa có & đã có ).xlsx
+++ b/Ảnh vật tư/Mẫu Excel(NCC chưa có & đã có ).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Pro213\Ảnh vật tư\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392A5A9A-4DA6-448A-9989-B956D6F145A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B91B4F-68CF-4DA0-AD84-081EEF181F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2670" windowWidth="28800" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>Mã Vật liệu</t>
   </si>
@@ -68,23 +68,41 @@
     <t>Khối</t>
   </si>
   <si>
-    <t xml:space="preserve">Công ty biển đông </t>
-  </si>
-  <si>
-    <t>0823141235</t>
-  </si>
-  <si>
-    <t>214 Đường cũ</t>
-  </si>
-  <si>
-    <t>CtyBd@moi.test</t>
+    <t>Công ty Tây Nam</t>
+  </si>
+  <si>
+    <t>0824234242</t>
+  </si>
+  <si>
+    <t>421 Đường cũ</t>
+  </si>
+  <si>
+    <t>C412d@moi.test</t>
+  </si>
+  <si>
+    <t>Kho chính</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tên kho</t>
+  </si>
+  <si>
+    <t>Sắt phi 12</t>
+  </si>
+  <si>
+    <t>Cây</t>
+  </si>
+  <si>
+    <t>Sơn trắng Dulux</t>
+  </si>
+  <si>
+    <t>Thùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +117,26 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -166,6 +204,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -173,27 +235,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -201,10 +285,45 @@
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
     <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -220,8 +339,18 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -237,9 +366,18 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -255,8 +393,19 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -272,8 +421,18 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -289,8 +448,18 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -306,8 +475,18 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -323,8 +502,18 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -340,8 +529,45 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -370,18 +596,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I2" totalsRowShown="0">
-  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mã Vật liệu" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tên vật liệu" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Đơn vị" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Số lượng" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Giá nhập" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tên NCC" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SĐT" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Địa chỉ" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Email" dataDxfId="0" dataCellStyle="Siêu kết nối"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:J5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Mã Vật liệu" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tên vật liệu" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Đơn vị" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Số lượng" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Giá nhập" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Tên NCC" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="SĐT" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Địa chỉ" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Email" dataDxfId="3" dataCellStyle="Siêu kết nối"/>
+    <tableColumn id="10" xr3:uid="{D2DC0CED-F0E8-42BF-B752-1702598889B3}" name=" Tên kho" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -665,18 +892,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.75" defaultRowHeight="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="5"/>
+    <col min="2" max="2" width="26.75" style="5" customWidth="1"/>
+    <col min="3" max="5" width="16.75" style="5"/>
+    <col min="6" max="6" width="21.5" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="16.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,46 +932,117 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="27" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>510000</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="J2" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="11">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11">
+        <v>15800.5</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14">
+        <v>10</v>
+      </c>
+      <c r="E4" s="12">
+        <v>510000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>